--- a/多工序模拟数据设置.xlsx
+++ b/多工序模拟数据设置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AECBD6E1-0F67-43C0-BC5A-B3FA143DEE6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F69F0E66-C201-473D-B3C9-12A33733E8F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>工序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,50 @@
   </si>
   <si>
     <t>犁地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟实验设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大8倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不宜进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋耕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照实际速度尽量控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幅宽放大两倍，旋耕跑完一趟播种就可以进入，重复三组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犁地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耙地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幅宽放大两倍，耙地跑完两趟趟播种就可以进入，重复三组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +455,23 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -431,8 +490,32 @@
       <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -451,8 +534,32 @@
       <c r="F3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -471,15 +578,41 @@
       <c r="F4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f>C3*8</f>
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:K4" si="0">D3*8</f>
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>3.25</v>
+      </c>
+      <c r="Q4">
+        <v>2.5</v>
+      </c>
+      <c r="R4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f>B4/3.6</f>
-        <v>2.7777777777777777</v>
+        <v>2.8</v>
       </c>
       <c r="C5">
-        <f>C4/3.6</f>
-        <v>1.6666666666666665</v>
+        <v>1.7</v>
       </c>
       <c r="D5">
         <v>1.7</v>
@@ -490,16 +623,53 @@
       <c r="F5">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2.8</v>
-      </c>
-      <c r="C6">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f>M4*2</f>
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <f>N4*2</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q5">
+        <f>Q4*3</f>
+        <v>7.5</v>
+      </c>
+      <c r="R5">
+        <f>R4*3</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M6">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>1.7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <v>1.7</v>
+      </c>
+      <c r="R6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -512,8 +682,17 @@
       <c r="F7">
         <v>6.4313725490196099</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>3.6511299435028302</v>
+      </c>
+      <c r="J7">
+        <v>23.743644067796499</v>
+      </c>
+      <c r="K7">
+        <v>5.5155367231638301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>C7*60</f>
         <v>154.3404255319152</v>
@@ -523,11 +702,23 @@
         <v>264.75573280159563</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8" si="0">F7*60</f>
+        <f t="shared" ref="F8" si="1">F7*60</f>
         <v>385.88235294117658</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f>I7*60</f>
+        <v>219.06779661016981</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:K8" si="2">J7*60</f>
+        <v>1424.61864406779</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>330.93220338982979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>C8/2</f>
         <v>77.170212765957601</v>
@@ -539,6 +730,9 @@
       <c r="F9">
         <f>F8/2</f>
         <v>192.94117647058829</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/多工序模拟数据设置.xlsx
+++ b/多工序模拟数据设置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F69F0E66-C201-473D-B3C9-12A33733E8F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F2BCACCE-1377-4DED-B881-1B52F041B3F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>工序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>幅宽放大两倍，耙地跑完两趟趟播种就可以进入，重复三组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幅宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大后的幅宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,8 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,10 +446,13 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="14.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -552,6 +570,10 @@
       <c r="N3">
         <v>1</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1"/>
       <c r="Q3">
         <v>2</v>
       </c>
@@ -600,6 +622,10 @@
       <c r="N4">
         <v>3.25</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="1"/>
       <c r="Q4">
         <v>2.5</v>
       </c>
@@ -643,6 +669,10 @@
         <f>N4*2</f>
         <v>6.5</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1"/>
       <c r="Q5">
         <f>Q4*3</f>
         <v>7.5</v>
@@ -659,9 +689,10 @@
       <c r="N6">
         <v>1.7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="P6" s="1"/>
       <c r="Q6">
         <v>1.7</v>
       </c>
@@ -736,6 +767,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
